--- a/Hydrophones/Results/noise_corrected/calculations/storm6_results.xlsx
+++ b/Hydrophones/Results/noise_corrected/calculations/storm6_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Results\noise_corrected\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E12F520-5689-4E84-9965-261D01DEB744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0175B4-E25B-4332-BDF3-0A450E48FE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEBCD194-AFA8-49EE-8674-E5A4097E31D1}"/>
+    <workbookView xWindow="-22830" yWindow="1755" windowWidth="21600" windowHeight="11295" xr2:uid="{AEBCD194-AFA8-49EE-8674-E5A4097E31D1}"/>
   </bookViews>
   <sheets>
     <sheet name="storm6_results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>max_amp</t>
   </si>
@@ -5531,8 +5531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3A72BC-2145-4BC2-9E63-F3002A8B6AEE}">
   <dimension ref="A1:CT131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
-      <selection activeCell="AB48" sqref="AB48:AB53"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15674,7 +15674,17 @@
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" ref="B62:B63" si="3">MAX(B29:CT29)</f>
+        <v>2.5487565000000001</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" ref="C62:C63" si="4">_xlfn.XLOOKUP(MAX(B29:CT29), B29:CT29, $B$1:$CT$1)</f>
+        <v>45166.5625</v>
+      </c>
       <c r="E62" s="1">
         <v>45166.28125</v>
       </c>
@@ -15689,7 +15699,17 @@
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="3"/>
+        <v>6.4236681151493897</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="4"/>
+        <v>45166.5625</v>
+      </c>
       <c r="E63" s="1">
         <v>45166.291666666664</v>
       </c>
